--- a/Code/Results/Cases/Case_2_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_86/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.476997488969744</v>
+        <v>0.8736847402618082</v>
       </c>
       <c r="C2">
-        <v>1.358588716978886</v>
+        <v>0.4372017465268527</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1619585875411147</v>
+        <v>0.0801198944586119</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007732830630038825</v>
+        <v>0.002446411695913761</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.7265256016845</v>
+        <v>1.496099152613581</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.098965052795997</v>
+        <v>0.4110552294794445</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.122912272805422</v>
+        <v>0.7868024024286342</v>
       </c>
       <c r="C3">
-        <v>1.162708354334256</v>
+        <v>0.3862978329114526</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1400855482846204</v>
+        <v>0.07491932498378873</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007844172887603151</v>
+        <v>0.002452612398224435</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.415934133391048</v>
+        <v>1.415280720512087</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9421177746944025</v>
+        <v>0.3723175530131755</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.910495799788663</v>
+        <v>0.7340310585277336</v>
       </c>
       <c r="C4">
-        <v>1.04553025535705</v>
+        <v>0.3552235821381373</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.127067094408055</v>
+        <v>0.07177625357847006</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007913712314300805</v>
+        <v>0.002456610528059306</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.231346611575461</v>
+        <v>1.366150344832135</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8482928083876047</v>
+        <v>0.3487910188779821</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.824987741288226</v>
+        <v>0.7126684126811824</v>
       </c>
       <c r="C5">
-        <v>0.9984319421298267</v>
+        <v>0.3426040627689986</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1218504139874312</v>
+        <v>0.07050775215833482</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007942383323299988</v>
+        <v>0.002458287986670606</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.157444972447834</v>
+        <v>1.346248331103439</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8105849871361457</v>
+        <v>0.3392673446715406</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.810847348701657</v>
+        <v>0.709129674874589</v>
       </c>
       <c r="C6">
-        <v>0.9906473423703233</v>
+        <v>0.340511169630787</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1209891217906893</v>
+        <v>0.07029785501515562</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007947165265824729</v>
+        <v>0.002458569443539507</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.145247392205178</v>
+        <v>1.342950664421821</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8043528151691035</v>
+        <v>0.33768974439743</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.909338593203131</v>
+        <v>0.7337423821909113</v>
       </c>
       <c r="C7">
-        <v>1.044892582988155</v>
+        <v>0.355053217438865</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1269964009925317</v>
+        <v>0.0717590965756969</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0007914097586743614</v>
+        <v>0.002456632955468247</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.230344878511076</v>
+        <v>1.365881463793642</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8477822552818211</v>
+        <v>0.3486623237256197</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.353742924441519</v>
+        <v>0.8436069130013948</v>
       </c>
       <c r="C8">
-        <v>1.290326998104433</v>
+        <v>0.4196112843541755</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1543216702353476</v>
+        <v>0.07831617363488874</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813905</v>
       </c>
       <c r="G8">
-        <v>0.000777100169121423</v>
+        <v>0.00244851019818329</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.618024427716449</v>
+        <v>1.468127815093595</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.044307281313472</v>
+        <v>0.3976439313101849</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.275472993247547</v>
+        <v>1.063734972815325</v>
       </c>
       <c r="C9">
-        <v>1.8027411847454</v>
+        <v>0.5477432154464736</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2119628201826416</v>
+        <v>0.09158515289335867</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007497745904231206</v>
+        <v>0.002434087193570554</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.438180979761071</v>
+        <v>1.672766980121295</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.454462068209097</v>
+        <v>0.4958190087955074</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.001055391472676</v>
+        <v>1.228510368539844</v>
       </c>
       <c r="C10">
-        <v>2.209156443806307</v>
+        <v>0.6429627307967962</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2580988199457082</v>
+        <v>0.101603379208143</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007298211680610844</v>
+        <v>0.002424396147721848</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.096064682041401</v>
+        <v>1.825963540465693</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.779394624600755</v>
+        <v>0.5693487202740641</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.346687886269251</v>
+        <v>1.304176487997779</v>
       </c>
       <c r="C11">
-        <v>2.40366701057593</v>
+        <v>0.6865479544622985</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2802817239056523</v>
+        <v>0.1062237291304839</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007206788336236106</v>
+        <v>0.002420181406213231</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.412632042405392</v>
+        <v>1.896347045886642</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.9347468148611</v>
+        <v>0.6031274223404779</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.480339499281342</v>
+        <v>1.332934551158644</v>
       </c>
       <c r="C12">
-        <v>2.479037818947745</v>
+        <v>0.7030938083909746</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2888929450883779</v>
+        <v>0.1079827304919831</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007171978504628375</v>
+        <v>0.002418613050855915</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.535545805429194</v>
+        <v>1.923104814885789</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.994912992588041</v>
+        <v>0.6159677940907926</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.451422423908582</v>
+        <v>1.326736271492791</v>
       </c>
       <c r="C13">
-        <v>2.462723118691258</v>
+        <v>0.699528498118184</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2870282634268762</v>
+        <v>0.1076034760457887</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007179485612172362</v>
+        <v>0.002418949596317262</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.508929064366839</v>
+        <v>1.917337292535677</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.981890999083177</v>
+        <v>0.6132001785232433</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.357624557442023</v>
+        <v>1.306540310389778</v>
       </c>
       <c r="C14">
-        <v>2.409831320653211</v>
+        <v>0.6879083550408609</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2809856902589161</v>
+        <v>0.1063682535170827</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007203928935812787</v>
+        <v>0.002420051823152462</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.422679810820966</v>
+        <v>1.898546287346704</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.939668263422746</v>
+        <v>0.6041828132983795</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.300548839314558</v>
+        <v>1.294183458666623</v>
       </c>
       <c r="C15">
-        <v>2.377667753534865</v>
+        <v>0.6807961013576005</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2773132281405211</v>
+        <v>0.1056128744049332</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007218873272469839</v>
+        <v>0.002420730567542939</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.37026338375918</v>
+        <v>1.887050095279818</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.913988285393955</v>
+        <v>0.5986658636297193</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.978823455785744</v>
+        <v>1.223579930016058</v>
       </c>
       <c r="C16">
-        <v>2.196665064439117</v>
+        <v>0.6401199534735724</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2566763308566138</v>
+        <v>0.1013027231274961</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007304165510118064</v>
+        <v>0.002424675473796873</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.075768723566796</v>
+        <v>1.82137822389376</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.769414170646925</v>
+        <v>0.567147981205494</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.78578460093172</v>
+        <v>1.180450638835396</v>
       </c>
       <c r="C17">
-        <v>2.088305339589681</v>
+        <v>0.6152370995096135</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2443478033340369</v>
+        <v>0.0986749449421751</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007356259860491853</v>
+        <v>0.002427145040436911</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.899892282468869</v>
+        <v>1.781272079656731</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.682817790215566</v>
+        <v>0.5478984171681276</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.676180976668263</v>
+        <v>1.155710357583416</v>
       </c>
       <c r="C18">
-        <v>2.026862850517603</v>
+        <v>0.6009503534518785</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2373665130584612</v>
+        <v>0.09716942793686201</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007386168320402781</v>
+        <v>0.002428583718906017</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.800321798982793</v>
+        <v>1.758269051778086</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.633701497064649</v>
+        <v>0.5368575025631088</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.63930179841401</v>
+        <v>1.147345063009482</v>
       </c>
       <c r="C19">
-        <v>2.006202235885439</v>
+        <v>0.5961173667021171</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2350205548938149</v>
+        <v>0.09666069156364188</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007396287997926475</v>
+        <v>0.002429073970874314</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.76686686401905</v>
+        <v>1.750491618447313</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.617183470150579</v>
+        <v>0.5331244987913522</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.806182714735939</v>
+        <v>1.185034916799225</v>
       </c>
       <c r="C20">
-        <v>2.099746849963708</v>
+        <v>0.6178832955160942</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.245648579469929</v>
+        <v>0.09895406233707149</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007350720632817165</v>
+        <v>0.002426880263640379</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.918446544358574</v>
+        <v>1.785534685126265</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.691962870227158</v>
+        <v>0.5499443532297761</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.385095336751704</v>
+        <v>1.312469481172627</v>
       </c>
       <c r="C21">
-        <v>2.425317427195068</v>
+        <v>0.6913203390873832</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2827544587947983</v>
+        <v>0.106730811342338</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007196755356314354</v>
+        <v>0.002419727322877718</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.447925936349293</v>
+        <v>1.904062767004859</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.952031503790749</v>
+        <v>0.6068300854230699</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.779919055189396</v>
+        <v>1.396368498237962</v>
       </c>
       <c r="C22">
-        <v>2.648295553146625</v>
+        <v>0.7395562323401919</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3082601665077647</v>
+        <v>0.1118681619062372</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007094963468040892</v>
+        <v>0.002415213689251239</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.812016267552707</v>
+        <v>1.98214261826331</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.129959205078691</v>
+        <v>0.6442952728001927</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.567479966718963</v>
+        <v>1.351532894831507</v>
       </c>
       <c r="C23">
-        <v>2.528226037634909</v>
+        <v>0.7137890337996282</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2945171941372564</v>
+        <v>0.1091211419810207</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007149435751745058</v>
+        <v>0.002417608010263004</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.615829648866111</v>
+        <v>1.940411896047152</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.034168644627371</v>
+        <v>0.6242725562362921</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.796956476964169</v>
+        <v>1.182962192638627</v>
       </c>
       <c r="C24">
-        <v>2.094571503978273</v>
+        <v>0.6166868921119431</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2450601695569645</v>
+        <v>0.09882785710345132</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007353225038851685</v>
+        <v>0.002426999910341937</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.910053395712566</v>
+        <v>1.783607391750536</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.687826313795924</v>
+        <v>0.5490193049415808</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.019091989662627</v>
+        <v>1.003663527101594</v>
       </c>
       <c r="C25">
-        <v>1.659769424779483</v>
+        <v>0.5129010031465668</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1958129020304966</v>
+        <v>0.0879496205680681</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007571185167158274</v>
+        <v>0.002437829082954392</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.20813797844616</v>
+        <v>1.616930341284188</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.340063686312831</v>
+        <v>0.469021949302757</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_86/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8736847402618082</v>
+        <v>2.47699748896963</v>
       </c>
       <c r="C2">
-        <v>0.4372017465268527</v>
+        <v>1.358588716979057</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0801198944586119</v>
+        <v>0.1619585875411147</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002446411695913761</v>
+        <v>0.0007732830627445429</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.496099152613581</v>
+        <v>2.726525601684472</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4110552294794445</v>
+        <v>1.098965052796004</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7868024024286342</v>
+        <v>2.12291227280565</v>
       </c>
       <c r="C3">
-        <v>0.3862978329114526</v>
+        <v>1.162708354334484</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07491932498378873</v>
+        <v>0.1400855482846062</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002452612398224435</v>
+        <v>0.0007844172887339074</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.415280720512087</v>
+        <v>2.415934133391062</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3723175530131755</v>
+        <v>0.9421177746943883</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7340310585277336</v>
+        <v>1.910495799788492</v>
       </c>
       <c r="C4">
-        <v>0.3552235821381373</v>
+        <v>1.045530255356255</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07177625357847006</v>
+        <v>0.1270670944080301</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002456610528059306</v>
+        <v>0.0007913712316262137</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.366150344832135</v>
+        <v>2.231346611575518</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3487910188779821</v>
+        <v>0.8482928083875976</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7126684126811824</v>
+        <v>1.824987741288083</v>
       </c>
       <c r="C5">
-        <v>0.3426040627689986</v>
+        <v>0.9984319421300256</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07050775215833482</v>
+        <v>0.1218504139874064</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002458287986670606</v>
+        <v>0.0007942383323168181</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.346248331103439</v>
+        <v>2.157444972447863</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3392673446715406</v>
+        <v>0.8105849871361528</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.709129674874589</v>
+        <v>1.810847348701429</v>
       </c>
       <c r="C6">
-        <v>0.340511169630787</v>
+        <v>0.9906473423702664</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07029785501515562</v>
+        <v>0.1209891217906396</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002458569443539507</v>
+        <v>0.0007947165267725103</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.342950664421821</v>
+        <v>2.145247392205164</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.33768974439743</v>
+        <v>0.8043528151691106</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7337423821909113</v>
+        <v>1.909338593202989</v>
       </c>
       <c r="C7">
-        <v>0.355053217438865</v>
+        <v>1.0448925829877</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0717590965756969</v>
+        <v>0.1269964009924784</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002456632955468247</v>
+        <v>0.0007914097587433212</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.365881463793642</v>
+        <v>2.230344878511076</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3486623237256197</v>
+        <v>0.8477822552818139</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8436069130013948</v>
+        <v>2.353742924441292</v>
       </c>
       <c r="C8">
-        <v>0.4196112843541755</v>
+        <v>1.290326998104149</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07831617363488874</v>
+        <v>0.154321670235305</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813905</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00244851019818329</v>
+        <v>0.0007771001691314179</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.468127815093595</v>
+        <v>2.618024427716435</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3976439313101849</v>
+        <v>1.044307281313458</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.063734972815325</v>
+        <v>3.275472993247718</v>
       </c>
       <c r="C9">
-        <v>0.5477432154464736</v>
+        <v>1.802741184745344</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09158515289335867</v>
+        <v>0.2119628201826416</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002434087193570554</v>
+        <v>0.0007497745904975357</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.672766980121295</v>
+        <v>3.438180979761157</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4958190087955074</v>
+        <v>1.454462068209139</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.228510368539844</v>
+        <v>4.001055391472676</v>
       </c>
       <c r="C10">
-        <v>0.6429627307967962</v>
+        <v>2.209156443806307</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.101603379208143</v>
+        <v>0.2580988199456513</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002424396147721848</v>
+        <v>0.0007298211681730228</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.825963540465693</v>
+        <v>4.096064682041373</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5693487202740641</v>
+        <v>1.779394624600755</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.304176487997779</v>
+        <v>4.346687886269194</v>
       </c>
       <c r="C11">
-        <v>0.6865479544622985</v>
+        <v>2.403667010575475</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1062237291304839</v>
+        <v>0.280281723905631</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002420181406213231</v>
+        <v>0.0007206788335127727</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.896347045886642</v>
+        <v>4.412632042405392</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6031274223404779</v>
+        <v>1.934746814861114</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.332934551158644</v>
+        <v>4.480339499281229</v>
       </c>
       <c r="C12">
-        <v>0.7030938083909746</v>
+        <v>2.479037818947575</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1079827304919831</v>
+        <v>0.2888929450883779</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002418613050855915</v>
+        <v>0.0007171978505642438</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.923104814885789</v>
+        <v>4.535545805429194</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6159677940907926</v>
+        <v>1.994912992588041</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.326736271492791</v>
+        <v>4.451422423908355</v>
       </c>
       <c r="C13">
-        <v>0.699528498118184</v>
+        <v>2.462723118691713</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1076034760457887</v>
+        <v>0.287028263426869</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002418949596317262</v>
+        <v>0.0007179485612141067</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.917337292535677</v>
+        <v>4.508929064366811</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6132001785232433</v>
+        <v>1.981890999083191</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.306540310389778</v>
+        <v>4.35762455744225</v>
       </c>
       <c r="C14">
-        <v>0.6879083550408609</v>
+        <v>2.40983132065378</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1063682535170827</v>
+        <v>0.2809856902588237</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002420051823152462</v>
+        <v>0.0007203928934560973</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.898546287346704</v>
+        <v>4.422679810821052</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6041828132983795</v>
+        <v>1.939668263422703</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294183458666623</v>
+        <v>4.300548839314615</v>
       </c>
       <c r="C15">
-        <v>0.6807961013576005</v>
+        <v>2.377667753534979</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1056128744049332</v>
+        <v>0.2773132281405566</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002420730567542939</v>
+        <v>0.000721887327127421</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.887050095279818</v>
+        <v>4.370263383759237</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5986658636297193</v>
+        <v>1.913988285393955</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.223579930016058</v>
+        <v>3.978823455785687</v>
       </c>
       <c r="C16">
-        <v>0.6401199534735724</v>
+        <v>2.196665064438548</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1013027231274961</v>
+        <v>0.2566763308565569</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002424675473796873</v>
+        <v>0.0007304165510516947</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.82137822389376</v>
+        <v>4.07576872356691</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.567147981205494</v>
+        <v>1.769414170646911</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.180450638835396</v>
+        <v>3.785784600931663</v>
       </c>
       <c r="C17">
-        <v>0.6152370995096135</v>
+        <v>2.088305339589283</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0986749449421751</v>
+        <v>0.2443478033340725</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002427145040436911</v>
+        <v>0.0007356259857980184</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.781272079656731</v>
+        <v>3.899892282468869</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5478984171681276</v>
+        <v>1.682817790215552</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.155710357583416</v>
+        <v>3.676180976668377</v>
       </c>
       <c r="C18">
-        <v>0.6009503534518785</v>
+        <v>2.026862850517887</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09716942793686201</v>
+        <v>0.2373665130584044</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002428583718906017</v>
+        <v>0.0007386168320199953</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.758269051778086</v>
+        <v>3.800321798982878</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5368575025631088</v>
+        <v>1.633701497064649</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.147345063009482</v>
+        <v>3.639301798414067</v>
       </c>
       <c r="C19">
-        <v>0.5961173667021171</v>
+        <v>2.006202235885553</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09666069156364188</v>
+        <v>0.2350205548938504</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.002429073970874314</v>
+        <v>0.0007396287997405437</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.750491618447313</v>
+        <v>3.766866864019136</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5331244987913522</v>
+        <v>1.617183470150593</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.185034916799225</v>
+        <v>3.806182714735883</v>
       </c>
       <c r="C20">
-        <v>0.6178832955160942</v>
+        <v>2.099746849964333</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09895406233707149</v>
+        <v>0.245648579470064</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002426880263640379</v>
+        <v>0.0007350720633247746</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.785534685126265</v>
+        <v>3.918446544358687</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5499443532297761</v>
+        <v>1.691962870227201</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.312469481172627</v>
+        <v>4.385095336751874</v>
       </c>
       <c r="C21">
-        <v>0.6913203390873832</v>
+        <v>2.425317427194784</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.106730811342338</v>
+        <v>0.2827544587948907</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002419727322877718</v>
+        <v>0.0007196755354225383</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.904062767004859</v>
+        <v>4.447925936349321</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6068300854230699</v>
+        <v>1.952031503790792</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.396368498237962</v>
+        <v>4.779919055189339</v>
       </c>
       <c r="C22">
-        <v>0.7395562323401919</v>
+        <v>2.648295553146625</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1118681619062372</v>
+        <v>0.3082601665077789</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.002415213689251239</v>
+        <v>0.0007094963466946954</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.98214261826331</v>
+        <v>4.812016267552679</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6442952728001927</v>
+        <v>2.129959205078677</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.351532894831507</v>
+        <v>4.567479966718793</v>
       </c>
       <c r="C23">
-        <v>0.7137890337996282</v>
+        <v>2.528226037635704</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1091211419810207</v>
+        <v>0.2945171941373061</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002417608010263004</v>
+        <v>0.0007149435751661784</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.940411896047152</v>
+        <v>4.615829648866139</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6242725562362921</v>
+        <v>2.0341686446274</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.182962192638627</v>
+        <v>3.796956476963999</v>
       </c>
       <c r="C24">
-        <v>0.6166868921119431</v>
+        <v>2.094571503978557</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09882785710345132</v>
+        <v>0.2450601695570001</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.002426999910341937</v>
+        <v>0.0007353225038843235</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.783607391750536</v>
+        <v>3.910053395712538</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5490193049415808</v>
+        <v>1.687826313795966</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.003663527101594</v>
+        <v>3.019091989662684</v>
       </c>
       <c r="C25">
-        <v>0.5129010031465668</v>
+        <v>1.659769424780222</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0879496205680681</v>
+        <v>0.1958129020305392</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925418</v>
       </c>
       <c r="G25">
-        <v>0.002437829082954392</v>
+        <v>0.000757118516796166</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.616930341284188</v>
+        <v>3.208137978446217</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.469021949302757</v>
+        <v>1.340063686312845</v>
       </c>
       <c r="N25">
         <v>0</v>
